--- a/jauswertung-meldeunterlagen/src/main/resources/Meldeunterlagen/Meldeunterlagen Einzelmeisterschaften.xlsx
+++ b/jauswertung-meldeunterlagen/src/main/resources/Meldeunterlagen/Meldeunterlagen Einzelmeisterschaften.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\source\eclipse-workspace\JAuswertung-Project\jauswertung-meldeunterlagen\src\main\resources\Meldeunterlagen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\source\eclipse-workspace\JAuswertung-Project\jauswertung-meldeunterlagen\src\main\resources\Meldeunterlagen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290BCB9C-93E7-4222-BC36-2155543A3D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D944DC3E-496A-4FED-AD2A-A3083738B9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AK 12" sheetId="4" r:id="rId1"/>
@@ -45,6 +45,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -53,6 +54,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden.</t>
@@ -67,6 +69,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -75,6 +78,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden</t>
@@ -89,6 +93,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -97,6 +102,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden.</t>
@@ -121,6 +127,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -129,6 +136,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet den Schwimmer ohne Zeit.</t>
@@ -143,6 +151,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -151,13 +160,14 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet den Schwimmer ohne Zeit.</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{800F89E3-8F5C-4E8E-9E74-D56EE2582747}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{6DFF881D-E474-4C01-95B8-F55A5B7E74D5}">
       <text>
         <r>
           <rPr>
@@ -165,6 +175,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -173,6 +184,31 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Hier kann eine Meldezeit angeben werden. Ein + meldet den Schwimmer ohne Zeit.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{800F89E3-8F5C-4E8E-9E74-D56EE2582747}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dennis Müller:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet den Schwimmer ohne Zeit.</t>
@@ -197,6 +233,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -205,6 +242,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet den Schwimmer ohne Zeit.</t>
@@ -219,6 +257,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -227,6 +266,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet den Schwimmer ohne Zeit.</t>
@@ -241,6 +281,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -249,6 +290,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet den Schwimmer ohne Zeit.</t>
@@ -273,6 +315,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -281,6 +324,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet den Schwimmer ohne Zeit.</t>
@@ -295,6 +339,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -303,6 +348,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet den Schwimmer ohne Zeit.</t>
@@ -317,6 +363,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -325,6 +372,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet den Schwimmer ohne Zeit.</t>
@@ -349,6 +397,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -357,6 +406,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet den Schwimmer ohne Zeit.</t>
@@ -371,6 +421,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -379,6 +430,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet den Schwimmer ohne Zeit.</t>
@@ -393,6 +445,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -401,6 +454,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet den Schwimmer ohne Zeit.</t>
@@ -425,6 +479,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -433,6 +488,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden.</t>
@@ -447,6 +503,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -455,6 +512,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden.</t>
@@ -469,6 +527,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -477,6 +536,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden.</t>
@@ -501,6 +561,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -509,6 +570,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. In der offenen AK kennzeichnet ein leeres Feld, dass an dieser Disziplin nicht teilgenommen wird. Ein + meldet den Schwimmer ohne Zeit.</t>
@@ -523,6 +585,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -531,6 +594,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. In der offenen AK kennzeichnet ein leeres Feld, dass an dieser Disziplin nicht teilgenommen wird. Ein + meldet den Schwimmer ohne Zeit.</t>
@@ -545,6 +609,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -553,6 +618,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. In der offenen AK kennzeichnet ein leeres Feld, dass an dieser Disziplin nicht teilgenommen wird. Ein + meldet den Schwimmer ohne Zeit.</t>
@@ -567,6 +633,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -575,6 +642,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. In der offenen AK kennzeichnet ein leeres Feld, dass an dieser Disziplin nicht teilgenommen wird. Ein + meldet den Schwimmer ohne Zeit.</t>
@@ -589,6 +657,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -597,6 +666,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. In der offenen AK kennzeichnet ein leeres Feld, dass an dieser Disziplin nicht teilgenommen wird. Ein + meldet den Schwimmer ohne Zeit.</t>
@@ -611,6 +681,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -619,6 +690,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. In der offenen AK kennzeichnet ein leeres Feld, dass an dieser Disziplin nicht teilgenommen wird. Ein + meldet den Schwimmer ohne Zeit.</t>
@@ -643,6 +715,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -651,6 +724,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. In der offenen AK kennzeichnet ein leeres Feld, dass an dieser Disziplin nicht teilgenommen wird. Ein + meldet den Schwimmer ohne Zeit.</t>
@@ -665,6 +739,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -673,6 +748,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. In der offenen AK kennzeichnet ein leeres Feld, dass an dieser Disziplin nicht teilgenommen wird. Ein + meldet den Schwimmer ohne Zeit.</t>
@@ -687,6 +763,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -695,6 +772,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. In der offenen AK kennzeichnet ein leeres Feld, dass an dieser Disziplin nicht teilgenommen wird. Ein + meldet den Schwimmer ohne Zeit.</t>
@@ -709,6 +787,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -717,6 +796,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. In der offenen AK kennzeichnet ein leeres Feld, dass an dieser Disziplin nicht teilgenommen wird. Ein + meldet den Schwimmer ohne Zeit.</t>
@@ -731,6 +811,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -739,6 +820,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. In der offenen AK kennzeichnet ein leeres Feld, dass an dieser Disziplin nicht teilgenommen wird. Ein + meldet den Schwimmer ohne Zeit.</t>
@@ -753,6 +835,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -761,6 +844,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. In der offenen AK kennzeichnet ein leeres Feld, dass an dieser Disziplin nicht teilgenommen wird. Ein + meldet den Schwimmer ohne Zeit.</t>
@@ -785,6 +869,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -793,6 +878,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. In der offenen AK kennzeichnet ein leeres Feld, dass an dieser Disziplin nicht teilgenommen wird. Ein + meldet den Schwimmer ohne Zeit.</t>
@@ -807,6 +893,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -815,6 +902,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. In der offenen AK kennzeichnet ein leeres Feld, dass an dieser Disziplin nicht teilgenommen wird. Ein + meldet den Schwimmer ohne Zeit.</t>
@@ -829,6 +917,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -837,6 +926,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. In der offenen AK kennzeichnet ein leeres Feld, dass an dieser Disziplin nicht teilgenommen wird. Ein + meldet den Schwimmer ohne Zeit.</t>
@@ -851,6 +941,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -859,6 +950,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. In der offenen AK kennzeichnet ein leeres Feld, dass an dieser Disziplin nicht teilgenommen wird. Ein + meldet den Schwimmer ohne Zeit.</t>
@@ -873,6 +965,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -881,6 +974,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. In der offenen AK kennzeichnet ein leeres Feld, dass an dieser Disziplin nicht teilgenommen wird. Ein + meldet den Schwimmer ohne Zeit.</t>
@@ -895,6 +989,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -903,6 +998,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. In der offenen AK kennzeichnet ein leeres Feld, dass an dieser Disziplin nicht teilgenommen wird. Ein + meldet den Schwimmer ohne Zeit.</t>
@@ -927,6 +1023,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -935,6 +1032,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet den Schwimmer ohne Zeit.</t>
@@ -949,6 +1047,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -957,13 +1056,14 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet den Schwimmer ohne Zeit.</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{6DCAAC41-B07B-4825-B4A2-2173D1C89CDF}">
       <text>
         <r>
           <rPr>
@@ -971,6 +1071,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -979,6 +1080,31 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Hier kann eine Meldezeit angeben werden. Ein + meldet den Schwimmer ohne Zeit.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dennis Müller:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet den Schwimmer ohne Zeit.</t>
@@ -1003,6 +1129,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -1011,6 +1138,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet den Schwimmer ohne Zeit.</t>
@@ -1025,6 +1153,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -1033,13 +1162,14 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet den Schwimmer ohne Zeit.</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{EDFF949C-0202-4B8F-83AE-DC7ECEF37683}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{72265A1B-9441-4795-9863-D2D34C941589}">
       <text>
         <r>
           <rPr>
@@ -1047,6 +1177,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -1055,6 +1186,31 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Hier kann eine Meldezeit angeben werden. Ein + meldet den Schwimmer ohne Zeit.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{EDFF949C-0202-4B8F-83AE-DC7ECEF37683}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dennis Müller:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet den Schwimmer ohne Zeit.</t>
@@ -1079,6 +1235,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -1087,6 +1244,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet den Schwimmer ohne Zeit.</t>
@@ -1101,6 +1259,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -1109,13 +1268,14 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet den Schwimmer ohne Zeit.</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{8E5DDA68-FBC6-4EAD-87E8-D202D82FFC17}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{FC236D28-0F2A-44AD-99AF-4AEFB3372E80}">
       <text>
         <r>
           <rPr>
@@ -1123,6 +1283,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -1131,6 +1292,31 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Hier kann eine Meldezeit angeben werden. Ein + meldet den Schwimmer ohne Zeit.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{8E5DDA68-FBC6-4EAD-87E8-D202D82FFC17}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dennis Müller:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet den Schwimmer ohne Zeit.</t>
@@ -1155,6 +1341,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -1163,6 +1350,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet den Schwimmer ohne Zeit.</t>
@@ -1177,6 +1365,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -1185,13 +1374,14 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet den Schwimmer ohne Zeit.</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{D396A515-38AE-4561-8EFB-3937BEE2BEA0}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{4F311CCB-8B0A-4486-9418-D7C36F76AB60}">
       <text>
         <r>
           <rPr>
@@ -1199,6 +1389,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -1207,6 +1398,31 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Hier kann eine Meldezeit angeben werden. Ein + meldet den Schwimmer ohne Zeit.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{D396A515-38AE-4561-8EFB-3937BEE2BEA0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dennis Müller:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet den Schwimmer ohne Zeit.</t>
@@ -1218,7 +1434,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="20">
   <si>
     <t>Nachname</t>
   </si>
@@ -1301,12 +1517,14 @@
       <sz val="8"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1349,7 +1567,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1371,13 +1589,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1396,9 +1607,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1436,9 +1647,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1471,26 +1682,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1523,26 +1717,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1729,21 +1906,21 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.7265625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="26.1796875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.1796875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.1796875" style="9" customWidth="1"/>
-    <col min="11" max="11" width="0" style="9" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="20.1796875" style="9" hidden="1"/>
+    <col min="1" max="1" width="27.7265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.1796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.1796875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="0.1796875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="20.1796875" style="3" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1772,7 +1949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -1782,9 +1959,8 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
@@ -1794,9 +1970,8 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
@@ -1806,9 +1981,8 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
@@ -1818,9 +1992,8 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
@@ -1830,9 +2003,8 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
@@ -1842,9 +2014,8 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
@@ -1854,9 +2025,8 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
@@ -1866,9 +2036,8 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
@@ -1878,9 +2047,8 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
@@ -1890,9 +2058,8 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
@@ -1902,9 +2069,8 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
@@ -1914,9 +2080,8 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
@@ -1926,9 +2091,8 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
@@ -1938,9 +2102,8 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
@@ -1950,9 +2113,8 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
@@ -1962,9 +2124,8 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
@@ -1974,9 +2135,8 @@
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
@@ -1986,9 +2146,8 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
@@ -1998,9 +2157,8 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
@@ -2010,9 +2168,8 @@
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
@@ -2022,9 +2179,8 @@
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
@@ -2034,9 +2190,8 @@
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
@@ -2046,9 +2201,8 @@
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
@@ -2058,9 +2212,8 @@
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
@@ -2070,9 +2223,8 @@
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
@@ -2082,9 +2234,8 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
@@ -2094,9 +2245,8 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
@@ -2106,9 +2256,8 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
@@ -2118,9 +2267,8 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
@@ -2130,7 +2278,6 @@
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
-      <c r="J31" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -2149,9 +2296,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2164,16 +2311,16 @@
     <col min="3" max="3" width="10.54296875" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.1796875" style="6" customWidth="1"/>
     <col min="5" max="5" width="12.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6328125" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.1796875" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.1796875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="0" style="3" hidden="1"/>
-    <col min="12" max="16384" width="20.1796875" style="3" hidden="1"/>
+    <col min="9" max="10" width="25.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="0.1796875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="13" max="16384" width="20.1796875" style="3" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2201,8 +2348,11 @@
       <c r="I1" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -2212,8 +2362,9 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
@@ -2223,8 +2374,9 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
@@ -2234,8 +2386,9 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
@@ -2245,8 +2398,9 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
@@ -2256,8 +2410,9 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
@@ -2267,8 +2422,9 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
@@ -2278,8 +2434,9 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
@@ -2289,8 +2446,9 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
@@ -2300,8 +2458,9 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
@@ -2311,8 +2470,9 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
@@ -2322,8 +2482,9 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
@@ -2333,8 +2494,9 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
@@ -2344,8 +2506,9 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
@@ -2355,8 +2518,9 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
@@ -2366,8 +2530,9 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
@@ -2377,8 +2542,9 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
@@ -2388,8 +2554,9 @@
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
@@ -2399,8 +2566,9 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
@@ -2410,8 +2578,9 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
@@ -2421,8 +2590,9 @@
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
@@ -2432,8 +2602,9 @@
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
@@ -2443,8 +2614,9 @@
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
@@ -2454,8 +2626,9 @@
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
@@ -2465,8 +2638,9 @@
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
@@ -2476,8 +2650,9 @@
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
@@ -2487,8 +2662,9 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
@@ -2498,8 +2674,9 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
@@ -2509,8 +2686,9 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
@@ -2520,8 +2698,9 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
@@ -2531,6 +2710,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -2563,12 +2743,12 @@
     <col min="3" max="3" width="10.54296875" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.1796875" style="6" customWidth="1"/>
     <col min="5" max="5" width="12.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6328125" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.1796875" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.7265625" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.90625" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="0.1796875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="0" style="3" hidden="1"/>
+    <col min="11" max="11" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="12" max="16384" width="20.1796875" style="3" hidden="1"/>
   </cols>
   <sheetData>
@@ -2962,12 +3142,12 @@
     <col min="3" max="3" width="10.54296875" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.1796875" style="6" customWidth="1"/>
     <col min="5" max="5" width="12.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6328125" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.1796875" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.7265625" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.90625" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="0.1796875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="0" style="3" hidden="1"/>
+    <col min="11" max="11" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="12" max="16384" width="20.1796875" style="3" hidden="1"/>
   </cols>
   <sheetData>
@@ -3348,7 +3528,7 @@
   </sheetPr>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3362,12 +3542,12 @@
     <col min="4" max="4" width="26.1796875" style="6" customWidth="1"/>
     <col min="5" max="5" width="12.7265625" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6328125" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.26953125" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.1796875" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.1796875" style="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="0.1796875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="0" style="3" hidden="1"/>
+    <col min="12" max="12" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="13" max="16384" width="20.1796875" style="3" hidden="1"/>
   </cols>
   <sheetData>
@@ -3794,7 +3974,7 @@
     <col min="3" max="3" width="10.54296875" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.1796875" style="6" customWidth="1"/>
     <col min="5" max="5" width="12.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6328125" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.1796875" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.7265625" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.453125" style="8" bestFit="1" customWidth="1"/>
@@ -4194,7 +4374,7 @@
     <col min="3" max="3" width="10.54296875" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.1796875" style="6" customWidth="1"/>
     <col min="5" max="5" width="12.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6328125" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.1796875" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.7265625" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.7265625" style="8" bestFit="1" customWidth="1"/>
@@ -4202,7 +4382,7 @@
     <col min="11" max="11" width="10.453125" style="8" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.1796875" style="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="0.1796875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="0" style="3" hidden="1"/>
+    <col min="14" max="14" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="15" max="16384" width="20.1796875" style="3" hidden="1"/>
   </cols>
   <sheetData>
@@ -4695,7 +4875,7 @@
     <col min="3" max="3" width="10.54296875" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.1796875" style="6" customWidth="1"/>
     <col min="5" max="5" width="12.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6328125" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.1796875" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.7265625" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.7265625" style="8" bestFit="1" customWidth="1"/>
@@ -4703,7 +4883,7 @@
     <col min="11" max="11" width="10.453125" style="8" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.1796875" style="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="0.1796875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="0" style="3" hidden="1"/>
+    <col min="14" max="14" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="15" max="16384" width="20.1796875" style="3" hidden="1"/>
   </cols>
   <sheetData>
@@ -5196,7 +5376,7 @@
     <col min="3" max="3" width="10.54296875" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.1796875" style="6" customWidth="1"/>
     <col min="5" max="5" width="12.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6328125" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.1796875" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.7265625" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.7265625" style="8" bestFit="1" customWidth="1"/>
@@ -5204,7 +5384,7 @@
     <col min="11" max="11" width="10.453125" style="8" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.1796875" style="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="0.1796875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="0" style="3" hidden="1"/>
+    <col min="14" max="14" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="15" max="16384" width="20.1796875" style="3" hidden="1"/>
   </cols>
   <sheetData>
@@ -5683,7 +5863,7 @@
   <sheetPr codeName="Tabelle6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
@@ -5698,16 +5878,17 @@
     <col min="3" max="3" width="10.54296875" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.1796875" style="6" customWidth="1"/>
     <col min="5" max="5" width="12.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6328125" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.1796875" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.7265625" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.1796875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="0" style="3" hidden="1"/>
-    <col min="12" max="16384" width="20.1796875" style="3" hidden="1"/>
+    <col min="10" max="10" width="25.7265625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="0.1796875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="13" max="16384" width="20.1796875" style="3" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5735,8 +5916,11 @@
       <c r="I1" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -5746,8 +5930,9 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
@@ -5757,8 +5942,9 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
@@ -5768,8 +5954,9 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
@@ -5779,8 +5966,9 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
@@ -5790,8 +5978,9 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
@@ -5801,8 +5990,9 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
@@ -5812,8 +6002,9 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
@@ -5823,8 +6014,9 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
@@ -5834,8 +6026,9 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
@@ -5845,8 +6038,9 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
@@ -5856,8 +6050,9 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
@@ -5867,8 +6062,9 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
@@ -5878,8 +6074,9 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
@@ -5889,8 +6086,9 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
@@ -5900,8 +6098,9 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
@@ -5911,8 +6110,9 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
@@ -5922,8 +6122,9 @@
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
@@ -5933,8 +6134,9 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
@@ -5944,8 +6146,9 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
@@ -5955,8 +6158,9 @@
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
@@ -5966,8 +6170,9 @@
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
@@ -5977,8 +6182,9 @@
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
@@ -5988,8 +6194,9 @@
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
@@ -5999,8 +6206,9 @@
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
@@ -6010,8 +6218,9 @@
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
@@ -6021,8 +6230,9 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
@@ -6032,8 +6242,9 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
@@ -6043,8 +6254,9 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
@@ -6054,8 +6266,9 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
@@ -6065,6 +6278,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -6083,7 +6297,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
@@ -6098,16 +6312,16 @@
     <col min="3" max="3" width="10.54296875" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.1796875" style="6" customWidth="1"/>
     <col min="5" max="5" width="12.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6328125" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.1796875" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.1796875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="0" style="3" hidden="1"/>
-    <col min="12" max="16384" width="20.1796875" style="3" hidden="1"/>
+    <col min="9" max="10" width="25.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="0.1796875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="13" max="16384" width="20.1796875" style="3" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6135,8 +6349,11 @@
       <c r="I1" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -6146,8 +6363,9 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
@@ -6157,8 +6375,9 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
@@ -6168,8 +6387,9 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
@@ -6179,8 +6399,9 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
@@ -6190,8 +6411,9 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
@@ -6201,8 +6423,9 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
@@ -6212,8 +6435,9 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
@@ -6223,8 +6447,9 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
@@ -6234,8 +6459,9 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
@@ -6245,8 +6471,9 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
@@ -6256,8 +6483,9 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
@@ -6267,8 +6495,9 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
@@ -6278,8 +6507,9 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
@@ -6289,8 +6519,9 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
@@ -6300,8 +6531,9 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
@@ -6311,8 +6543,9 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
@@ -6322,8 +6555,9 @@
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
@@ -6333,8 +6567,9 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
@@ -6344,8 +6579,9 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
@@ -6355,8 +6591,9 @@
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
@@ -6366,8 +6603,9 @@
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
@@ -6377,8 +6615,9 @@
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
@@ -6388,8 +6627,9 @@
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
@@ -6399,8 +6639,9 @@
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
@@ -6410,8 +6651,9 @@
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
@@ -6421,8 +6663,9 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
@@ -6432,8 +6675,9 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
@@ -6443,8 +6687,9 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
@@ -6454,8 +6699,9 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
@@ -6465,6 +6711,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -6482,7 +6729,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
@@ -6497,16 +6744,16 @@
     <col min="3" max="3" width="10.54296875" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.1796875" style="6" customWidth="1"/>
     <col min="5" max="5" width="12.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6328125" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.1796875" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.1796875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="0" style="3" hidden="1"/>
-    <col min="12" max="16384" width="20.1796875" style="3" hidden="1"/>
+    <col min="9" max="10" width="25.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="0.1796875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="13" max="16384" width="20.1796875" style="3" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6534,8 +6781,11 @@
       <c r="I1" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -6545,8 +6795,9 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
@@ -6556,8 +6807,9 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
@@ -6567,8 +6819,9 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
@@ -6578,8 +6831,9 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
@@ -6589,8 +6843,9 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
@@ -6600,8 +6855,9 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
@@ -6611,8 +6867,9 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
@@ -6622,8 +6879,9 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
@@ -6633,8 +6891,9 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
@@ -6644,8 +6903,9 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
@@ -6655,8 +6915,9 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
@@ -6666,8 +6927,9 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
@@ -6677,8 +6939,9 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
@@ -6688,8 +6951,9 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
@@ -6699,8 +6963,9 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
@@ -6710,8 +6975,9 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
@@ -6721,8 +6987,9 @@
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
@@ -6732,8 +6999,9 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
@@ -6743,8 +7011,9 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
@@ -6754,8 +7023,9 @@
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
@@ -6765,8 +7035,9 @@
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
@@ -6776,8 +7047,9 @@
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
@@ -6787,8 +7059,9 @@
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
@@ -6798,8 +7071,9 @@
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
@@ -6809,8 +7083,9 @@
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
@@ -6820,8 +7095,9 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
@@ -6831,8 +7107,9 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
@@ -6842,8 +7119,9 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
@@ -6853,8 +7131,9 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
@@ -6864,6 +7143,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -6881,7 +7161,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
@@ -6896,16 +7176,16 @@
     <col min="3" max="3" width="10.54296875" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.1796875" style="6" customWidth="1"/>
     <col min="5" max="5" width="12.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6328125" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.1796875" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.1796875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="0" style="3" hidden="1"/>
-    <col min="12" max="16384" width="20.1796875" style="3" hidden="1"/>
+    <col min="9" max="10" width="25.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="0.1796875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="13" max="16384" width="20.1796875" style="3" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6933,8 +7213,11 @@
       <c r="I1" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -6944,8 +7227,9 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
@@ -6955,8 +7239,9 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
@@ -6966,8 +7251,9 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
@@ -6977,8 +7263,9 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
@@ -6988,8 +7275,9 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
@@ -6999,8 +7287,9 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
@@ -7010,8 +7299,9 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
@@ -7021,8 +7311,9 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
@@ -7032,8 +7323,9 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
@@ -7043,8 +7335,9 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
@@ -7054,8 +7347,9 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
@@ -7065,8 +7359,9 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
@@ -7076,8 +7371,9 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
@@ -7087,8 +7383,9 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
@@ -7098,8 +7395,9 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
@@ -7109,8 +7407,9 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
@@ -7120,8 +7419,9 @@
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
@@ -7131,8 +7431,9 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
@@ -7142,8 +7443,9 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
@@ -7153,8 +7455,9 @@
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
@@ -7164,8 +7467,9 @@
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
@@ -7175,8 +7479,9 @@
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
@@ -7186,8 +7491,9 @@
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
@@ -7197,8 +7503,9 @@
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
@@ -7208,8 +7515,9 @@
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
@@ -7219,8 +7527,9 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
@@ -7230,8 +7539,9 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
@@ -7241,8 +7551,9 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
@@ -7252,8 +7563,9 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
@@ -7263,6 +7575,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
